--- a/Feature_Explanations.xlsx
+++ b/Feature_Explanations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steffen/Programs/Fico-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6758F47-5348-B046-989A-86E70647AD33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723A2AD5-2FB8-734E-83ED-550A37207D48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{178F9147-DF64-6F40-BAA4-73FF5D3D202A}"/>
   </bookViews>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Observations for Special Cases</t>
-  </si>
-  <si>
-    <t>Data is centred in the range 160-240. No correlation</t>
   </si>
   <si>
     <t>Slightly more negative in special case</t>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t xml:space="preserve">Positive correlation. Never delinquent is clearly the optimal. </t>
+  </si>
+  <si>
+    <t>Slight positive correlation. Data is centred in the range 160-240. Guassian type distribution</t>
   </si>
 </sst>
 </file>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1D2D0-32BF-9A4F-BB53-291A2A833120}">
   <dimension ref="B1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1375,10 +1375,10 @@
         <v>23</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>136</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>137</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>55</v>
@@ -1452,7 +1452,7 @@
         <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:16">
@@ -1487,10 +1487,10 @@
         <v>588</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1528,10 +1528,10 @@
         <v>588</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:16">
@@ -1566,10 +1566,10 @@
         <v>588</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:16">
@@ -1604,10 +1604,10 @@
         <v>588</v>
       </c>
       <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
         <v>72</v>
-      </c>
-      <c r="M6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -1642,10 +1642,10 @@
         <v>588</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:16">
@@ -1680,10 +1680,10 @@
         <v>588</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -1718,10 +1718,10 @@
         <v>588</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:16">
@@ -1756,13 +1756,13 @@
         <v>588</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="N10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1799,7 +1799,7 @@
         <v>588</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
@@ -1838,7 +1838,7 @@
         <v>588</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
@@ -1877,7 +1877,7 @@
         <v>588</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:16">
@@ -1912,7 +1912,7 @@
         <v>588</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:16">
@@ -1947,7 +1947,7 @@
         <v>588</v>
       </c>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:16">
@@ -1982,10 +1982,10 @@
         <v>588</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -2023,7 +2023,7 @@
         <v>588</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -2058,7 +2058,7 @@
         <v>588</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -2093,10 +2093,10 @@
         <v>588</v>
       </c>
       <c r="L19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2134,10 +2134,10 @@
         <v>588</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2175,10 +2175,10 @@
         <v>588</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -2216,10 +2216,10 @@
         <v>588</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2257,10 +2257,10 @@
         <v>588</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2298,10 +2298,10 @@
         <v>588</v>
       </c>
       <c r="L24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2309,46 +2309,46 @@
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="L31" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="L32" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="8:12">
       <c r="L33" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="8:12">
@@ -2356,22 +2356,22 @@
     </row>
     <row r="35" spans="8:12">
       <c r="L35" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="8:12">
       <c r="L36" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="8:12">
       <c r="L37" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="8:12">
       <c r="H42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2397,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" s="17"/>
     </row>
@@ -2412,17 +2412,17 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="13"/>
       <c r="J3" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -2438,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2457,11 +2457,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="13"/>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2469,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2477,11 +2477,11 @@
         <v>2</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="13"/>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2489,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="13"/>
     </row>
@@ -2506,7 +2506,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2514,16 +2514,16 @@
         <v>4</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2531,7 +2531,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2547,15 +2547,15 @@
         <v>6</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -2563,10 +2563,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2594,17 +2594,17 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="13"/>
       <c r="J15" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2639,11 +2639,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="13"/>
       <c r="J17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2651,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2659,11 +2659,11 @@
         <v>2</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" s="13"/>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2671,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2679,11 +2679,11 @@
         <v>3</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="13"/>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2691,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2699,11 +2699,11 @@
         <v>4</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="13"/>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2711,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -2719,10 +2719,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2730,7 +2730,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -2738,10 +2738,10 @@
         <v>6</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2749,7 +2749,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -2757,13 +2757,13 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2771,13 +2771,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2794,7 +2794,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:10">

--- a/Feature_Explanations.xlsx
+++ b/Feature_Explanations.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steffen/Programs/Fico-Challenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Documents\UGR 2018\Fico-Challenge-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723A2AD5-2FB8-734E-83ED-550A37207D48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB335D-48C8-4EDE-8D21-D8102A48032F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{178F9147-DF64-6F40-BAA4-73FF5D3D202A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="5310" xr2:uid="{178F9147-DF64-6F40-BAA4-73FF5D3D202A}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanations" sheetId="1" r:id="rId1"/>
     <sheet name="MaxDel" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
   <si>
     <t>ExternalRiskEstimate</t>
   </si>
@@ -370,9 +370,6 @@
   </si>
   <si>
     <t>Strong negative correlation. Bad increasing linearly. Blue is a guassian.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The value -8 is almost negligable. Vert low occurance. </t>
   </si>
   <si>
     <r>
@@ -561,6 +558,12 @@
   </si>
   <si>
     <t>Slight positive correlation. Data is centred in the range 160-240. Guassian type distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value -8 is almost negligable. Very low occurance. </t>
+  </si>
+  <si>
+    <t>Use kNN to input missing values.</t>
   </si>
 </sst>
 </file>
@@ -759,9 +762,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -782,6 +782,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,36 +1352,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1D2D0-32BF-9A4F-BB53-291A2A833120}">
   <dimension ref="B1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.375" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.83203125" customWidth="1"/>
+    <col min="9" max="11" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.875" customWidth="1"/>
     <col min="13" max="13" width="40.5" customWidth="1"/>
-    <col min="14" max="14" width="31.33203125" customWidth="1"/>
-    <col min="15" max="15" width="34.33203125" customWidth="1"/>
+    <col min="14" max="14" width="31.375" customWidth="1"/>
+    <col min="15" max="15" width="34.375" customWidth="1"/>
     <col min="16" max="16" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" s="1" customFormat="1" ht="21">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>135</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>136</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>55</v>
@@ -1487,13 +1490,15 @@
         <v>588</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="2:16">
@@ -1764,86 +1769,88 @@
       <c r="N10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>5.7579779149999997</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>1.644517749</v>
       </c>
-      <c r="G11" s="22">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
         <v>9</v>
       </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
         <v>588</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+      <c r="L11" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>6.3745314559999997</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>1.8491860579999999</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>2</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>8</v>
       </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22">
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
         <v>588</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="L12" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" t="s">
@@ -1984,11 +1991,13 @@
       <c r="L16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="18" t="s">
         <v>81</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="2:16">
@@ -2099,7 +2108,9 @@
         <v>85</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="2:16">
@@ -2140,7 +2151,9 @@
         <v>88</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="2:16">
@@ -2181,7 +2194,9 @@
         <v>89</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="2:16">
@@ -2222,7 +2237,9 @@
         <v>90</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="2:16">
@@ -2263,7 +2280,9 @@
         <v>85</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="2:16">
@@ -2301,77 +2320,79 @@
         <v>94</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="P24" s="4"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="27" t="s">
-        <v>134</v>
+      <c r="B27" s="26" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="25" t="s">
+    <row r="30" spans="2:16">
+      <c r="B30" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="31" spans="2:16">
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:16">
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="8:12">
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="28" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="8:12">
-      <c r="L34" s="29"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" spans="8:12">
-      <c r="L35" s="29" t="s">
+      <c r="L35" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="8:12">
-      <c r="L36" s="30" t="s">
+      <c r="L36" s="29" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="8:12">
-      <c r="L37" s="31" t="s">
+      <c r="L37" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="8:12">
       <c r="H42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2389,17 +2410,17 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="17"/>
+      <c r="E1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -2412,17 +2433,17 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="J3" s="18" t="s">
-        <v>118</v>
+      <c r="J3" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2430,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -2438,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2449,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2457,11 +2478,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="13"/>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2469,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2477,11 +2498,11 @@
         <v>2</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="13"/>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2489,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2497,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="13"/>
     </row>
@@ -2506,7 +2527,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2514,16 +2535,16 @@
         <v>4</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2531,7 +2552,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2539,7 +2560,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2547,15 +2568,15 @@
         <v>6</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -2563,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2594,17 +2615,17 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="J15" s="18" t="s">
-        <v>118</v>
+      <c r="J15" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2612,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2620,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2631,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2639,11 +2660,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="13"/>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2651,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2659,11 +2680,11 @@
         <v>2</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="13"/>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2671,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2679,11 +2700,11 @@
         <v>3</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="13"/>
       <c r="J19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2691,7 +2712,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2699,11 +2720,11 @@
         <v>4</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" s="13"/>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2711,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -2719,10 +2740,10 @@
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2730,7 +2751,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -2738,10 +2759,10 @@
         <v>6</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2749,7 +2770,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -2757,13 +2778,13 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2771,13 +2792,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2794,7 +2815,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:10">

--- a/Feature_Explanations.xlsx
+++ b/Feature_Explanations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steffen/Programs/Fico-Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723A2AD5-2FB8-734E-83ED-550A37207D48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E2EAA5-DFDE-924A-9221-5D8626E6D7FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{178F9147-DF64-6F40-BAA4-73FF5D3D202A}"/>
   </bookViews>
@@ -809,13 +809,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>3860800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -891,13 +891,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>3848100</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -973,13 +973,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>3835400</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1347,1030 +1347,1030 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1D2D0-32BF-9A4F-BB53-291A2A833120}">
-  <dimension ref="B1:P42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.83203125" customWidth="1"/>
-    <col min="13" max="13" width="40.5" customWidth="1"/>
-    <col min="14" max="14" width="31.33203125" customWidth="1"/>
-    <col min="15" max="15" width="34.33203125" customWidth="1"/>
-    <col min="16" max="16" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="80.83203125" customWidth="1"/>
+    <col min="12" max="12" width="40.5" customWidth="1"/>
+    <col min="13" max="13" width="31.33203125" customWidth="1"/>
+    <col min="14" max="14" width="34.33203125" customWidth="1"/>
+    <col min="15" max="15" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="1" customFormat="1" ht="21">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21">
+      <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="34" t="s">
         <v>136</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="2:16">
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
         <v>25</v>
       </c>
+      <c r="D2" s="9">
+        <v>72.060440119999996</v>
+      </c>
       <c r="E2" s="9">
-        <v>72.060440119999996</v>
-      </c>
-      <c r="F2" s="9">
         <v>9.8717946899999998</v>
       </c>
+      <c r="F2" s="3">
+        <v>33</v>
+      </c>
       <c r="G2" s="3">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
         <v>598</v>
       </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
       <c r="L2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D3" s="10">
+        <v>200.769103</v>
+      </c>
       <c r="E3" s="10">
-        <v>200.769103</v>
-      </c>
-      <c r="F3" s="10">
         <v>97.946081050000004</v>
       </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
       <c r="G3" s="5">
-        <v>2</v>
+        <v>803</v>
       </c>
       <c r="H3" s="5">
-        <v>803</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="J3" s="5">
-        <v>239</v>
-      </c>
-      <c r="K3" s="5">
         <v>588</v>
       </c>
+      <c r="K3" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="L3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="2:16">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
         <v>25</v>
       </c>
+      <c r="D4" s="9">
+        <v>9.5884915409999998</v>
+      </c>
       <c r="E4" s="9">
-        <v>9.5884915409999998</v>
-      </c>
-      <c r="F4" s="9">
         <v>12.963398140000001</v>
       </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>588</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9">
+        <v>78.778137979999997</v>
+      </c>
+      <c r="E5" s="9">
+        <v>34.066063300000003</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
         <v>383</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>588</v>
       </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="9">
-        <v>78.778137979999997</v>
-      </c>
-      <c r="F5" s="9">
-        <v>34.066063300000003</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>383</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="D6" s="9">
+        <v>21.12146692</v>
+      </c>
+      <c r="E6" s="9">
+        <v>11.32139559</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>79</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>588</v>
       </c>
-      <c r="L5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.58140006099999997</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.238783314</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>588</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.38476344800000001</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.99322264800000004</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>588</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9">
-        <v>21.12146692</v>
-      </c>
-      <c r="F6" s="9">
-        <v>11.32139559</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>79</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="D9" s="9">
+        <v>92.359943270000002</v>
+      </c>
+      <c r="E9" s="9">
+        <v>11.772876460000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>588</v>
       </c>
-      <c r="L6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.58140006099999997</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1.238783314</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>19</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
+    <row r="10" spans="1:15">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11">
+        <v>21.879546810000001</v>
+      </c>
+      <c r="E10" s="11">
+        <v>20.80851354</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>83</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4664</v>
+      </c>
+      <c r="I10" s="7">
+        <v>176</v>
+      </c>
+      <c r="J10" s="7">
         <v>588</v>
       </c>
-      <c r="L7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.38476344800000001</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.99322264800000004</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>19</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5.7579779149999997</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1.644517749</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <v>9</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
         <v>588</v>
       </c>
-      <c r="L8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="9">
-        <v>92.359943270000002</v>
-      </c>
-      <c r="F9" s="9">
-        <v>11.772876460000001</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>588</v>
-      </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="11">
-        <v>21.879546810000001</v>
-      </c>
-      <c r="F10" s="11">
-        <v>20.80851354</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>83</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4664</v>
-      </c>
-      <c r="J10" s="7">
-        <v>176</v>
-      </c>
-      <c r="K10" s="7">
-        <v>588</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="21">
-        <v>5.7579779149999997</v>
-      </c>
-      <c r="F11" s="21">
-        <v>1.644517749</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
-        <v>9</v>
-      </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>588</v>
-      </c>
-      <c r="L11" s="23" t="s">
+      <c r="K11" s="23" t="s">
         <v>138</v>
       </c>
+      <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-    </row>
-    <row r="12" spans="2:16">
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="B12" s="20" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="20" t="s">
         <v>38</v>
       </c>
+      <c r="D12" s="21">
+        <v>6.3745314559999997</v>
+      </c>
       <c r="E12" s="21">
-        <v>6.3745314559999997</v>
-      </c>
-      <c r="F12" s="21">
         <v>1.8491860579999999</v>
       </c>
+      <c r="F12" s="22">
+        <v>2</v>
+      </c>
       <c r="G12" s="22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H12" s="22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
       </c>
       <c r="J12" s="22">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22">
         <v>588</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="K12" s="23" t="s">
         <v>137</v>
       </c>
+      <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="2:16">
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
         <v>40</v>
       </c>
+      <c r="D13" s="9">
+        <v>22.635497919999999</v>
+      </c>
       <c r="E13" s="9">
-        <v>22.635497919999999</v>
-      </c>
-      <c r="F13" s="9">
         <v>12.999924099999999</v>
       </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H13" s="3">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
         <v>588</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
         <v>31</v>
       </c>
+      <c r="D14" s="9">
+        <v>1.8638435820000001</v>
+      </c>
       <c r="E14" s="9">
-        <v>1.8638435820000001</v>
-      </c>
-      <c r="F14" s="9">
         <v>1.8280989780000001</v>
       </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H14" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
         <v>588</v>
       </c>
-      <c r="L14" t="s">
+      <c r="K14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
         <v>40</v>
       </c>
+      <c r="D15" s="9">
+        <v>34.618680980000001</v>
+      </c>
       <c r="E15" s="9">
-        <v>34.618680980000001</v>
-      </c>
-      <c r="F15" s="9">
         <v>17.953431590000001</v>
       </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
         <v>588</v>
       </c>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="1:15">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="D16" s="11">
+        <v>2.477718833</v>
+      </c>
       <c r="E16" s="11">
-        <v>2.477718833</v>
-      </c>
-      <c r="F16" s="11">
         <v>4.7604125479999997</v>
       </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
-        <v>24</v>
+        <v>1855</v>
       </c>
       <c r="I16" s="7">
-        <v>1855</v>
+        <v>476</v>
       </c>
       <c r="J16" s="7">
-        <v>476</v>
-      </c>
-      <c r="K16" s="7">
         <v>588</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="L16" s="19" t="s">
         <v>81</v>
       </c>
+      <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="2:16">
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
         <v>31</v>
       </c>
+      <c r="D17" s="9">
+        <v>1.45598217</v>
+      </c>
       <c r="E17" s="9">
-        <v>1.45598217</v>
-      </c>
-      <c r="F17" s="9">
         <v>2.1361609989999999</v>
       </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>588</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.3971228849999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.0961023870000002</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>66</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>588</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="K18" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="9">
-        <v>1.3971228849999999</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2.0961023870000002</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>66</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D19" s="10">
+        <v>34.857718120000001</v>
+      </c>
+      <c r="E19" s="10">
+        <v>28.89662731</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>232</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>186</v>
+      </c>
+      <c r="J19" s="5">
         <v>588</v>
       </c>
-      <c r="L18" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="10">
-        <v>34.857718120000001</v>
-      </c>
-      <c r="F19" s="10">
-        <v>28.89662731</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>232</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>186</v>
-      </c>
-      <c r="K19" s="5">
-        <v>588</v>
+      <c r="K19" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="2:16">
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="D20" s="10">
+        <v>68.537972719999999</v>
+      </c>
       <c r="E20" s="10">
-        <v>68.537972719999999</v>
-      </c>
-      <c r="F20" s="10">
         <v>24.903776059999998</v>
       </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
       <c r="G20" s="5">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="H20" s="5">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5">
-        <v>0</v>
+        <v>3419</v>
       </c>
       <c r="J20" s="5">
-        <v>3419</v>
-      </c>
-      <c r="K20" s="5">
         <v>588</v>
       </c>
+      <c r="K20" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="L20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="2:16">
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D21" s="10">
+        <v>4.1021101389999997</v>
+      </c>
       <c r="E21" s="10">
-        <v>4.1021101389999997</v>
-      </c>
-      <c r="F21" s="10">
         <v>3.0216211259999999</v>
       </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H21" s="5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J21" s="5">
-        <v>156</v>
-      </c>
-      <c r="K21" s="5">
         <v>588</v>
       </c>
+      <c r="K21" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="L21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="2:16">
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D22" s="10">
+        <v>2.4849056599999999</v>
+      </c>
       <c r="E22" s="10">
-        <v>2.4849056599999999</v>
-      </c>
-      <c r="F22" s="10">
         <v>1.634503077</v>
       </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
       <c r="G22" s="5">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H22" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="J22" s="5">
-        <v>861</v>
-      </c>
-      <c r="K22" s="5">
         <v>588</v>
       </c>
+      <c r="K22" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="L22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="2:16">
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="D23" s="10">
+        <v>1.0922695950000001</v>
+      </c>
       <c r="E23" s="10">
-        <v>1.0922695950000001</v>
-      </c>
-      <c r="F23" s="10">
         <v>1.5362503510000001</v>
       </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
       <c r="G23" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H23" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J23" s="5">
-        <v>583</v>
-      </c>
-      <c r="K23" s="5">
         <v>588</v>
       </c>
+      <c r="K23" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="L23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M23" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="2:16">
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D24" s="10">
+        <v>66.449000299999994</v>
+      </c>
       <c r="E24" s="10">
-        <v>66.449000299999994</v>
-      </c>
-      <c r="F24" s="10">
         <v>22.035459419999999</v>
       </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J24" s="5">
-        <v>18</v>
-      </c>
-      <c r="K24" s="5">
         <v>588</v>
       </c>
+      <c r="K24" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="L24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M24" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="27" t="s">
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="24" t="s">
+    <row r="28" spans="1:15">
+      <c r="A28" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="25" t="s">
+    <row r="29" spans="1:15">
+      <c r="A29" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
-      <c r="L31" s="28" t="s">
+    <row r="31" spans="1:15">
+      <c r="K31" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
-      <c r="L32" s="29" t="s">
+    <row r="32" spans="1:15">
+      <c r="K32" s="29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="8:12">
-      <c r="L33" s="29" t="s">
+    <row r="33" spans="7:11">
+      <c r="K33" s="29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="8:12">
-      <c r="L34" s="29"/>
-    </row>
-    <row r="35" spans="8:12">
-      <c r="L35" s="29" t="s">
+    <row r="34" spans="7:11">
+      <c r="K34" s="29"/>
+    </row>
+    <row r="35" spans="7:11">
+      <c r="K35" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="8:12">
-      <c r="L36" s="30" t="s">
+    <row r="36" spans="7:11">
+      <c r="K36" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="8:12">
-      <c r="L37" s="31" t="s">
+    <row r="37" spans="7:11">
+      <c r="K37" s="31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="8:12">
-      <c r="H42" t="s">
+    <row r="42" spans="7:11">
+      <c r="G42" t="s">
         <v>112</v>
       </c>
     </row>

--- a/Feature_Explanations.xlsx
+++ b/Feature_Explanations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Documents\UGR 2018\Fico-Challenge-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB335D-48C8-4EDE-8D21-D8102A48032F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DE6431-DB64-4084-8845-A442DEC34DEB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="5310" xr2:uid="{178F9147-DF64-6F40-BAA4-73FF5D3D202A}"/>
   </bookViews>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1D2D0-32BF-9A4F-BB53-291A2A833120}">
   <dimension ref="B1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2407,7 +2407,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J16" sqref="J16:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/Feature_Explanations.xlsx
+++ b/Feature_Explanations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Documents\UGR 2018\Fico-Challenge-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DE6431-DB64-4084-8845-A442DEC34DEB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD235963-1CFC-4C90-AE96-6423B866CA21}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="5310" xr2:uid="{178F9147-DF64-6F40-BAA4-73FF5D3D202A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="5310" activeTab="1" xr2:uid="{178F9147-DF64-6F40-BAA4-73FF5D3D202A}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanations" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
   <si>
     <t>ExternalRiskEstimate</t>
   </si>
@@ -564,6 +564,39 @@
   </si>
   <si>
     <t>Use kNN to input missing values.</t>
+  </si>
+  <si>
+    <t>0 -&gt; 2</t>
+  </si>
+  <si>
+    <t>1 -&gt; 3</t>
+  </si>
+  <si>
+    <t>2 -&gt; 4</t>
+  </si>
+  <si>
+    <t>3 -&gt; 5</t>
+  </si>
+  <si>
+    <t>4 -&gt; 6</t>
+  </si>
+  <si>
+    <t>5,6 -&gt; 1</t>
+  </si>
+  <si>
+    <t>8,9 -&gt; 0</t>
+  </si>
+  <si>
+    <t>1 -&gt; 0</t>
+  </si>
+  <si>
+    <t>7 -&gt; 1</t>
+  </si>
+  <si>
+    <t>9 -&gt; 0</t>
+  </si>
+  <si>
+    <t>8 -&gt; 7</t>
   </si>
 </sst>
 </file>
@@ -1352,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1D2D0-32BF-9A4F-BB53-291A2A833120}">
   <dimension ref="B1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2404,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C11DE42-E9D9-6041-A905-4888232DD3A0}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2818,23 +2851,371 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+    <row r="30" spans="1:10" ht="21">
+      <c r="E30" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="J33" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="15">
+        <v>0</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="15">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="15">
+        <v>2</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="15">
+        <v>3</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="E37" s="13">
+        <v>3</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="J37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="15">
+        <v>4</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="E38" s="13">
+        <v>4</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="J38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="E39" s="13">
+        <v>5</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="J39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="15">
+        <v>7</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="E40" s="13">
+        <v>6</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="E41" s="13">
+        <v>7</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="16"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="E45" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="J45" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="15">
+        <v>1</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="E46" s="13">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="15">
+        <v>2</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="15">
+        <v>3</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="E48" s="13">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="15">
+        <v>4</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="E49" s="13">
+        <v>3</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="15">
+        <v>5</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="E50" s="13">
+        <v>4</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="15">
+        <v>6</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="E51" s="13">
+        <v>5</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="15">
+        <v>7</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="E52" s="13">
+        <v>6</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="J52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="15">
+        <v>8</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="E53" s="13">
+        <v>7</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="15">
+        <v>9</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="J54" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
